--- a/biology/Botanique/Baies_roses/Baies_roses.xlsx
+++ b/biology/Botanique/Baies_roses/Baies_roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les baies roses, souvent appelées à tort « poivre rose », sont les fruits de plusieurs espèces d'arbustes du genre Schinus qui sont utilisés comme épice.
@@ -512,13 +524,15 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les termes « poivre rose » et « baies roses », utilisés sans autre précision, peuvent qualifier les fruits de Schinus molle ou de Schinus terebinthifolius[1],[2],[3],[4]. Ils sont par ailleurs inexacts, puisque ces arbustes n'ont aucun lien avec les poivriers, et que ces fruits ne sont pas des baies, mais des drupes[5].
-Les deux espèces, toutes deux appelées faux-poivrier [1] ou poivrier d'Amérique [6],[4], portent également plusieurs autres noms vernaculaires :
-Schinus molle : poivrier du Pérou[6], poivrier de Californie[6], poivrier sauvage[6], molée des jardins[6] ;
-Schinus terebinthifolius : poivrier du Brésil[2],[7], poivrier de Bourbon[réf. souhaitée].
-En France, seuls les fruits de Piper nigrum peuvent porter l'appellation « poivre » (poivres vert, blanc, rouge, noir, gris) ; les fruits provenant d'autres espèces du genre Piper, ou d'autres genres, ne peuvent être commercialisés sous la dénomination « poivre » que moyennant l'ajout d'un qualificatif d'origine[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les termes « poivre rose » et « baies roses », utilisés sans autre précision, peuvent qualifier les fruits de Schinus molle ou de Schinus terebinthifolius. Ils sont par ailleurs inexacts, puisque ces arbustes n'ont aucun lien avec les poivriers, et que ces fruits ne sont pas des baies, mais des drupes.
+Les deux espèces, toutes deux appelées faux-poivrier  ou poivrier d'Amérique  portent également plusieurs autres noms vernaculaires :
+Schinus molle : poivrier du Pérou, poivrier de Californie, poivrier sauvage, molée des jardins ;
+Schinus terebinthifolius : poivrier du Brésil poivrier de Bourbon[réf. souhaitée].
+En France, seuls les fruits de Piper nigrum peuvent porter l'appellation « poivre » (poivres vert, blanc, rouge, noir, gris) ; les fruits provenant d'autres espèces du genre Piper, ou d'autres genres, ne peuvent être commercialisés sous la dénomination « poivre » que moyennant l'ajout d'un qualificatif d'origine.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Île de la Réunion, Amérique du Sud, Floride, Madagascar, Nouvelle-Calédonie, Brésil.
 La meilleure qualité est désignée sous le nom de Calibre A+ ; les baies sont alors homogènes et en pleine maturité. Seulement 5 % de la récolte répond à ce calibre spécifique, destiné aux grands chefs. Les principaux producteurs mondiaux sont le Brésil et Madagascar.
@@ -579,9 +595,11 @@
           <t>Usages et toxicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les baies roses sont indigestes[9]. En trop grandes quantités, elles peuvent devenir toxiques : une douzaine de grains par plat est une mesure raisonnable. Ceci a amené la FDA à l'interdire en 1982[10]. Cette interdiction a été levée peu après.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les baies roses sont indigestes. En trop grandes quantités, elles peuvent devenir toxiques : une douzaine de grains par plat est une mesure raisonnable. Ceci a amené la FDA à l'interdire en 1982. Cette interdiction a été levée peu après.
 La baie rose entre aussi dans la composition de certains parfums.
 </t>
         </is>
@@ -611,7 +629,9 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La baie rose possèderait des propriétés anti-inflammatoires, antiseptiques et antispasmodiques. Elle aiderait à soulager les douleurs des rhumatismes et des articulations. Elle aiderait aussi à nettoyer les voies respiratoires et les troubles de la digestion. Le poivre rose aurait aussi des vertus vasoconstrictrices.[réf. souhaitée]
 </t>
